--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB545C52-7E47-554A-95EC-DE7AC8A05308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6397DD7-24F3-0C45-A888-F3A3C9A370D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37420" yWindow="880" windowWidth="27240" windowHeight="16040" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>Question</t>
   </si>
@@ -44,28 +44,6 @@
 •	Some of the time
 •	Most of the time
 •	All of the time </t>
-  </si>
-  <si>
-    <t>People sometimes look to others for companionship, assistance, or other types of support. How often is each of the following kinds of support available to you if you need it? Please also choose one number that describes how often each kind of support was available to you in a typical week prior to the coronavirus (COVID-19) pandemic.
-•	Someone you can count on to listen to you when you need to talk
-•	Someone to give you information to help you understand a situation
-•	Someone to give you good advice about a crisis
-•	Someone to confide in or talk to about yourself or your problems
-•	Someone whose advice you really want
-•	Someone to share your most private worries and fears with
-•	Someone to turn to for suggestions about how to deal with a personal problem
-•	Someone who understands your problems
-•	Someone to help you if you were confined to bed
-•	Someone to take you to the doctor if you needed it
-•	Someone to prepare your meals if you were unable to do it yourself
-•	Someone to help with daily chores if you were sick
-•	Someone who shows you love and affection
-•	Someone to love and make you feel wanted
-•	Someone who hugs you
-•	Someone to have a good time with
-•	Someone to get together with for relaxation
-•	Someone to do something enjoyable with
-•	Someone to do things with to help you get your mind off things</t>
   </si>
   <si>
     <t>Who do you turn to for social support? Think about who you turned to for social support in this last week. Please select all that apply.</t>
@@ -173,19 +151,108 @@
   <si>
     <t xml:space="preserve">RAPID Team modified from Medical Outsomes Study (MOS) Social Support Survey </t>
   </si>
+  <si>
+    <t>For each child you say you rely on for social support, please select their age and what you rely on them for: </t>
+  </si>
+  <si>
+    <t>1 year old - 18 years old</t>
+  </si>
+  <si>
+    <t>•	Emotional support
+•	Taking care of other children in the household 
+•	Other household responsibilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                   What do you rely on this child for? Select all that apply. </t>
+  </si>
+  <si>
+    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the oldest child you rely on for social support?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the second child you rely on for social support?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the third child you rely on for social support?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the fourth child you rely on for social support?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                       Do you have another child you rely on for social support?                                        [Skip Logic: Skip to End of Block If "Do you have another child you rely on for social support?" = No]</t>
+  </si>
+  <si>
+    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the fifth child you rely on for social support?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support. How often is each of the following kinds of support available to you if you need it? Please also choose one number that describes how often each kind of support was available to you in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>typical week prior to the coronavirus (COVID-19) pandemic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+•	Someone you can count on to listen to you when you need to talk
+•	Someone to give you information to help you understand a situation
+•	Someone to give you good advice about a crisis
+•	Someone to confide in or talk to about yourself or your problems
+•	Someone whose advice you really want
+•	Someone to share your most private worries and fears with
+•	Someone to turn to for suggestions about how to deal with a personal problem
+•	Someone who understands your problems
+•	Someone to help you if you were confined to bed
+•	Someone to take you to the doctor if you needed it
+•	Someone to prepare your meals if you were unable to do it yourself
+•	Someone to help with daily chores if you were sick
+•	Someone who shows you love and affection
+•	Someone to love and make you feel wanted
+•	Someone who hugs you
+•	Someone to have a good time with
+•	Someone to get together with for relaxation
+•	Someone to do something enjoyable with
+•	Someone to do things with to help you get your mind off things</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.                                                                                                                     Who do you turn to for social support? Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.                                                                                                    • </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the last week                                                                                                         • In a typical week prior to the COVID-19 pandemic </t>
+    </r>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +275,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,9 +302,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,6 +315,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,9 +648,10 @@
     <col min="2" max="2" width="29.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="24" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,104 +664,283 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6397DD7-24F3-0C45-A888-F3A3C9A370D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEFE460-BAB0-FC45-9527-7BB88CB6A499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="0" yWindow="1600" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -100,30 +100,6 @@
     <t xml:space="preserve">Developed by RAPID Team </t>
   </si>
   <si>
-    <t>Past 
-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-•	My partner/spouse
-•	My child(ren)
-•	My parent(s)
-•	Other relative(s)
-•	Friend(s)
-•	Neighbor(s)
-•	Co-worker(s)
-•	Member(s) of a religious group
-•	Religious and/or spiritual figure (e.g., God, Allah, Buddha)
-•	Member(s) of a parent group / parenting support group
-•	Health or mental health professional(s) (e.g., doctor, counselor)
-•	Babysitter/Nanny
-•	Childcare provider</t>
-  </si>
-  <si>
-    <t>Current
-15, 19, 21</t>
-  </si>
-  <si>
     <t>What age is the oldest child you rely on for social support?</t>
   </si>
   <si>
@@ -145,14 +121,7 @@
     <t>•Answer choices 1 - 18</t>
   </si>
   <si>
-    <t>Past
-19, 21</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAPID Team modified from Medical Outsomes Study (MOS) Social Support Survey </t>
-  </si>
-  <si>
-    <t>For each child you say you rely on for social support, please select their age and what you rely on them for: </t>
   </si>
   <si>
     <t>1 year old - 18 years old</t>
@@ -161,27 +130,6 @@
     <t>•	Emotional support
 •	Taking care of other children in the household 
 •	Other household responsibilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                   What do you rely on this child for? Select all that apply. </t>
-  </si>
-  <si>
-    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the oldest child you rely on for social support?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the second child you rely on for social support?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the third child you rely on for social support?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the fourth child you rely on for social support?</t>
-  </si>
-  <si>
-    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                       Do you have another child you rely on for social support?                                        [Skip Logic: Skip to End of Block If "Do you have another child you rely on for social support?" = No]</t>
-  </si>
-  <si>
-    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]                                                                                                  What age is the fifth child you rely on for social support?</t>
   </si>
   <si>
     <r>
@@ -229,8 +177,24 @@
     </r>
   </si>
   <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>https://www.rand.org/health-care/surveys_tools/mos/social-support.html</t>
+  </si>
+  <si>
+    <t>15, 19, 21, 23, 35</t>
+  </si>
+  <si>
+    <t>19, 21</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.                                                                                                                     Who do you turn to for social support? Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.                                                                                                    • </t>
+      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.
+In the last week...
+Who do you turn to for social support?
+ Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.
+</t>
     </r>
     <r>
       <rPr>
@@ -241,11 +205,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">In the last week                                                                                                         • In a typical week prior to the COVID-19 pandemic </t>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
   <si>
-    <t>Frequency</t>
+    <t>People sometimes look to others for companionship, assistance, or other types of support.
+In a typical week prior to the COVID-19 pandemic...
+Who do you turn to for social support? 
+Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.</t>
+  </si>
+  <si>
+    <t>For each child you say you rely on for social support, please select their age and what you rely on them for: 
+[Display this question if "Who do you turn to for social support?" = My children (in the last week)]
+What age is the oldest child you rely on for social support?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Display this question if "Who do you turn to for social support?" = My children (in the last week)]
+What do you rely on this child for? Select all that apply. </t>
+  </si>
+  <si>
+    <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]
+Do you have another child you rely on for social support?
+[Skip Logic: Skip to End of Block If "Do you have another child you rely on for social support?" = No]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•	My partner/spouse
+•	My child(ren)
+•	My parent(s)
+•	Other relative(s)
+•	Friend(s)
+•	Neighbor(s)
+•	Co-worker(s)
+•	Member(s) of a religious group
+•	Religious and/or spiritual figure (e.g., God, Allah, Buddha)
+•	Member(s) of a parent group / parenting support group
+•	Health or mental health professional(s) (e.g., doctor, counselor)
+•Babysitter/Nanny
+•	Childcare provider</t>
   </si>
 </sst>
 </file>
@@ -276,10 +274,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,31 +299,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,19 +644,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="67.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="3" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -662,287 +670,192 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
+      <c r="A3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="306" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="31" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{37A51745-7CF8-F047-B810-CC8F757B7C68}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{B3EA7C5B-FAE8-2C44-B05D-BE4C99EE37EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEFE460-BAB0-FC45-9527-7BB88CB6A499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BD10C-D4BF-DF45-B564-6AF2376D1D23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1600" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="-31580" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -44,9 +44,6 @@
 •	Some of the time
 •	Most of the time
 •	All of the time </t>
-  </si>
-  <si>
-    <t>Who do you turn to for social support? Think about who you turned to for social support in this last week. Please select all that apply.</t>
   </si>
   <si>
     <r>
@@ -94,87 +91,17 @@
     </r>
   </si>
   <si>
-    <t>Who do you turn to for social support? Think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developed by RAPID Team </t>
-  </si>
-  <si>
-    <t>What age is the oldest child you rely on for social support?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What do you rely on this child for? Select all that apply. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Emotional Support
-•	Taking Care of other children in the household
-•	Other household responsibilities </t>
-  </si>
-  <si>
-    <t>Do you have another child you rely on for social support? </t>
   </si>
   <si>
     <t xml:space="preserve">•	Yes
 •	No </t>
   </si>
   <si>
-    <t>•Answer choices 1 - 18</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAPID Team modified from Medical Outsomes Study (MOS) Social Support Survey </t>
   </si>
   <si>
     <t>1 year old - 18 years old</t>
-  </si>
-  <si>
-    <t>•	Emotional support
-•	Taking care of other children in the household 
-•	Other household responsibilities</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support. How often is each of the following kinds of support available to you if you need it? Please also choose one number that describes how often each kind of support was available to you in a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>typical week prior to the coronavirus (COVID-19) pandemic.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-•	Someone you can count on to listen to you when you need to talk
-•	Someone to give you information to help you understand a situation
-•	Someone to give you good advice about a crisis
-•	Someone to confide in or talk to about yourself or your problems
-•	Someone whose advice you really want
-•	Someone to share your most private worries and fears with
-•	Someone to turn to for suggestions about how to deal with a personal problem
-•	Someone who understands your problems
-•	Someone to help you if you were confined to bed
-•	Someone to take you to the doctor if you needed it
-•	Someone to prepare your meals if you were unable to do it yourself
-•	Someone to help with daily chores if you were sick
-•	Someone who shows you love and affection
-•	Someone to love and make you feel wanted
-•	Someone who hugs you
-•	Someone to have a good time with
-•	Someone to get together with for relaxation
-•	Someone to do something enjoyable with
-•	Someone to do things with to help you get your mind off things</t>
-    </r>
   </si>
   <si>
     <t>Source Link</t>
@@ -230,20 +157,24 @@
 [Skip Logic: Skip to End of Block If "Do you have another child you rely on for social support?" = No]</t>
   </si>
   <si>
-    <t xml:space="preserve">
-•	My partner/spouse
-•	My child(ren)
-•	My parent(s)
-•	Other relative(s)
-•	Friend(s)
-•	Neighbor(s)
-•	Co-worker(s)
-•	Member(s) of a religious group
-•	Religious and/or spiritual figure (e.g., God, Allah, Buddha)
-•	Member(s) of a parent group / parenting support group
-•	Health or mental health professional(s) (e.g., doctor, counselor)
+    <t>•My partner/spouse
+•My child(ren)
+•My parent(s)
+•Other relative(s)
+•Friend(s)
+•Neighbor(s)
+•Co-worker(s)
+•Member(s) of a religious group
+•Religious and/or spiritual figure (e.g., God, Allah, Buddha)
+•Member(s) of a parent group / parenting support group
+•Health or mental health professional(s) (e.g., doctor, counselor)
 •Babysitter/Nanny
-•	Childcare provider</t>
+•Childcare provider</t>
+  </si>
+  <si>
+    <t>•Emotional support
+•Taking care of other children in the household 
+•Other household responsibilities</t>
   </si>
 </sst>
 </file>
@@ -644,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,191 +601,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="306" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="306" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="306" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{37A51745-7CF8-F047-B810-CC8F757B7C68}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{B3EA7C5B-FAE8-2C44-B05D-BE4C99EE37EC}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{B3EA7C5B-FAE8-2C44-B05D-BE4C99EE37EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BD10C-D4BF-DF45-B564-6AF2376D1D23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B059BC-67AC-034A-9193-D50A9A76DC00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31580" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -175,6 +175,51 @@
     <t>•Emotional support
 •Taking care of other children in the household 
 •Other household responsibilities</t>
+  </si>
+  <si>
+    <r>
+      <t>People sometimes look to others for companionship, assistance, or other types of support. How often is each of the following kinds of support available to you if you need it? Please choose one number that describes how often each kind of support was available to i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n a typical week prior to the COVID-19 pandemic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+•	Someone you can count on to listen to you when you need to talk
+•	Someone to give you information to help you understand a situation
+•	Someone to give you good advice about a crisis
+•	Someone to confide in or talk to about yourself or your problems
+•	Someone whose advice you really want
+•	Someone to share your most private worries and fears with
+•	Someone to turn to for suggestions about how to deal with a personal problem
+•	Someone who understands your problems
+•	Someone to help you if you were confined to bed
+•	Someone to take you to the doctor if you needed it
+•	Someone to prepare your meals if you were unable to do it yourself
+•	Someone to help with daily chores if you were sick
+•	Someone who shows you love and affection
+•	Someone to love and make you feel wanted
+•	Someone who hugs you
+•	Someone to have a good time with
+•	Someone to get together with for relaxation
+•	Someone to do something enjoyable with
+•	Someone to do things with to help you get your mind off things</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -575,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +683,7 @@
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -653,26 +698,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -681,23 +729,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{B3EA7C5B-FAE8-2C44-B05D-BE4C99EE37EC}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{B3EA7C5B-FAE8-2C44-B05D-BE4C99EE37EC}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{38FBEECC-AA3A-F945-A52C-C975E0099AE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B059BC-67AC-034A-9193-D50A9A76DC00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E6609-0696-0740-9C83-503EF1374451}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31580" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="3360" yWindow="480" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,31 +110,7 @@
     <t>https://www.rand.org/health-care/surveys_tools/mos/social-support.html</t>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35</t>
-  </si>
-  <si>
     <t>19, 21</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.
-In the last week...
-Who do you turn to for social support?
- Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>People sometimes look to others for companionship, assistance, or other types of support.
@@ -220,6 +196,29 @@
 •	Someone to do something enjoyable with
 •	Someone to do things with to help you get your mind off things</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.
+Who do you turn to for social support?
+ Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>15, 19, 21, 23, 35, 43</t>
   </si>
 </sst>
 </file>
@@ -622,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,36 +653,36 @@
     </row>
     <row r="2" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -717,7 +716,7 @@
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -726,26 +725,26 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -754,7 +753,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E6609-0696-0740-9C83-503EF1374451}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D11760-A030-6A4C-B94C-117B2168ECD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="480" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="40060" yWindow="-2260" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     </r>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35, 43</t>
+    <t>15, 19, 21, 23, 35, 43, 53, 55, 59</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D11760-A030-6A4C-B94C-117B2168ECD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE5290-DDA1-6A42-AA55-C380FA59FAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40060" yWindow="-2260" windowWidth="28800" windowHeight="16400" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="12120" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     </r>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35, 43, 53, 55, 59</t>
+    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE5290-DDA1-6A42-AA55-C380FA59FAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F32F1A-9D06-8647-9FC0-458C67F7F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     </r>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67</t>
+    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F32F1A-9D06-8647-9FC0-458C67F7F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BFC24B-90FB-6F44-98E2-E929A565EB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="12120" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73</t>
+  </si>
+  <si>
+    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73, 81</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BFC24B-90FB-6F44-98E2-E929A565EB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C46CA07-3F85-F14E-A0DE-A5EA538F848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,13 @@
     </r>
   </si>
   <si>
+    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73, 81</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.
 Who do you turn to for social support?
- Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.
+ Think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.
 </t>
     </r>
     <r>
@@ -218,10 +221,7 @@
     </r>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73</t>
-  </si>
-  <si>
-    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73, 81</t>
+    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73, 89</t>
   </si>
 </sst>
 </file>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +656,7 @@
     </row>
     <row r="2" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="289" x14ac:dyDescent="0.2">
@@ -680,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C46CA07-3F85-F14E-A0DE-A5EA538F848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF7D2AFC-4D58-B642-8F97-FD9D6887E240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
+    <workbookView xWindow="12060" yWindow="500" windowWidth="16680" windowHeight="16080" xr2:uid="{F291446A-8B5F-B145-9D54-D44DAA4A744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Source</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
   </si>
   <si>
     <t xml:space="preserve">•	None of the time
@@ -110,9 +107,6 @@
     <t>https://www.rand.org/health-care/surveys_tools/mos/social-support.html</t>
   </si>
   <si>
-    <t>19, 21</t>
-  </si>
-  <si>
     <t>People sometimes look to others for companionship, assistance, or other types of support.
 In a typical week prior to the COVID-19 pandemic...
 Who do you turn to for social support? 
@@ -198,9 +192,6 @@
     </r>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73, 81</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.
 Who do you turn to for social support?
@@ -221,7 +212,19 @@
     </r>
   </si>
   <si>
-    <t>15, 19, 21, 23, 35, 43, 53, 55, 59, 67, 73, 89</t>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t>July 13 - July 16</t>
+  </si>
+  <si>
+    <t>Aug 10 - Aug 13, Aug 24 - Aug 27</t>
+  </si>
+  <si>
+    <t>July 13 - July 16, Aug 10 - Aug 13, Aug 24 - Aug 27, Sept 8 - Sept 10, Dec 1 - Dec 3, Feb 3 - Feb 6, April 14 - April 16, April 28 - May 1, May 25 - May 28, July 21 - July 23, September 1 - September 3, October 27 - November 2</t>
+  </si>
+  <si>
+    <t>July 13 - July 16, Aug 10 - Aug 13, Aug 24 - Aug 27, Sept 8 - Sept 10, Dec 1 - Dec 3, Feb 3 - Feb 6, April 14 - April 16, April 28 - May 1, May 25 - May 28, July 21 - July 23, September 1 - September 3, January 11 - January 18</t>
   </si>
 </sst>
 </file>
@@ -624,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,115 +651,115 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="289" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,11 +45,121 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.
+Who do you turn to for social support?
+ Think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>•My partner/spouse
+•My child(ren)
+•My parent(s)
+•Other relative(s)
+•Friend(s)
+•Neighbor(s)
+•Co-worker(s)
+•Member(s) of a religious group
+•Religious and/or spiritual figure (e.g., God, Allah, Buddha)
+•Member(s) of a parent group / parenting support group
+•Health or mental health professional(s) (e.g., doctor, counselor)
+•Babysitter/Nanny
+•Childcare provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by RAPID Team </t>
+  </si>
+  <si>
+    <t>07/13/2020-07/16/2020 08/10/2020-08/13/2020 08/24/2020-08/27/2020  09/08/2020-09/10/2020  12/01/2020-12/03/2020 02/03/2021-02/06/2021  04/14/2021-04/16/2021  04/28/2021-05/01/2021   05/25/2021-05/28/2021 07/21/2021-07/23/2021 09/01/2021-09/03/2021 01/11/2022-01/18/2022</t>
+  </si>
+  <si>
+    <t>People sometimes look to others for companionship, assistance, or other types of support.
+In a typical week prior to the COVID-19 pandemic...
+Who do you turn to for social support? 
+Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.</t>
+  </si>
+  <si>
+    <t>07/13/2020-07/16/2020 08/10/2020-08/13/2020 08/24/2020-08/27/2020  09/08/2020-09/10/2020  12/01/2020-12/03/2020 02/03/2021-02/06/2021  04/14/2021-04/16/2021  04/28/2021-05/01/2021   05/25/2021-05/28/2021 07/21/2021-07/23/2021 09/01/2021-09/03/2021  10/27/2021-11/02/2021</t>
+  </si>
+  <si>
+    <r>
+      <t>People sometimes look to others for companionship, assistance, or other types of support. How often is each of the following kinds of support available to you if you need it? Please choose one number that describes how often each kind of support was available to i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n a typical week prior to the COVID-19 pandemic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+•	Someone you can count on to listen to you when you need to talk
+•	Someone to give you information to help you understand a situation
+•	Someone to give you good advice about a crisis
+•	Someone to confide in or talk to about yourself or your problems
+•	Someone whose advice you really want
+•	Someone to share your most private worries and fears with
+•	Someone to turn to for suggestions about how to deal with a personal problem
+•	Someone who understands your problems
+•	Someone to help you if you were confined to bed
+•	Someone to take you to the doctor if you needed it
+•	Someone to prepare your meals if you were unable to do it yourself
+•	Someone to help with daily chores if you were sick
+•	Someone who shows you love and affection
+•	Someone to love and make you feel wanted
+•	Someone who hugs you
+•	Someone to have a good time with
+•	Someone to get together with for relaxation
+•	Someone to do something enjoyable with
+•	Someone to do things with to help you get your mind off things</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">•	None of the time
 •	A little of the time
 •	Some of the time
 •	Most of the time
 •	All of the time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team modified from Medical Outsomes Study (MOS) Social Support Survey </t>
+  </si>
+  <si>
+    <t>https://www.rand.org/health-care/surveys_tools/mos/social-support.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/13/2020-07/16/2020 </t>
   </si>
   <si>
     <r>
@@ -88,38 +207,24 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Developed by RAPID Team </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Yes
-•	No </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPID Team modified from Medical Outsomes Study (MOS) Social Support Survey </t>
-  </si>
-  <si>
-    <t>1 year old - 18 years old</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t>https://www.rand.org/health-care/surveys_tools/mos/social-support.html</t>
-  </si>
-  <si>
-    <t>People sometimes look to others for companionship, assistance, or other types of support.
-In a typical week prior to the COVID-19 pandemic...
-Who do you turn to for social support? 
-Again, think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.</t>
-  </si>
-  <si>
     <t>For each child you say you rely on for social support, please select their age and what you rely on them for: 
 [Display this question if "Who do you turn to for social support?" = My children (in the last week)]
 What age is the oldest child you rely on for social support?</t>
   </si>
   <si>
+    <t>1 year old - 18 years old</t>
+  </si>
+  <si>
+    <t>08/10/2020-08/13/2020 08/24/2020-08/27/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">[Display this question if "Who do you turn to for social support?" = My children (in the last week)]
 What do you rely on this child for? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•Emotional support
+•Taking care of other children in the household 
+•Other household responsibilities</t>
   </si>
   <si>
     <t>[Display this question if "Who do you turn to for social support?" = My children (in the last week)]
@@ -127,111 +232,15 @@
 [Skip Logic: Skip to End of Block If "Do you have another child you rely on for social support?" = No]</t>
   </si>
   <si>
-    <t>•My partner/spouse
-•My child(ren)
-•My parent(s)
-•Other relative(s)
-•Friend(s)
-•Neighbor(s)
-•Co-worker(s)
-•Member(s) of a religious group
-•Religious and/or spiritual figure (e.g., God, Allah, Buddha)
-•Member(s) of a parent group / parenting support group
-•Health or mental health professional(s) (e.g., doctor, counselor)
-•Babysitter/Nanny
-•Childcare provider</t>
-  </si>
-  <si>
-    <t>•Emotional support
-•Taking care of other children in the household 
-•Other household responsibilities</t>
-  </si>
-  <si>
-    <r>
-      <t>People sometimes look to others for companionship, assistance, or other types of support. How often is each of the following kinds of support available to you if you need it? Please choose one number that describes how often each kind of support was available to i</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n a typical week prior to the COVID-19 pandemic.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-•	Someone you can count on to listen to you when you need to talk
-•	Someone to give you information to help you understand a situation
-•	Someone to give you good advice about a crisis
-•	Someone to confide in or talk to about yourself or your problems
-•	Someone whose advice you really want
-•	Someone to share your most private worries and fears with
-•	Someone to turn to for suggestions about how to deal with a personal problem
-•	Someone who understands your problems
-•	Someone to help you if you were confined to bed
-•	Someone to take you to the doctor if you needed it
-•	Someone to prepare your meals if you were unable to do it yourself
-•	Someone to help with daily chores if you were sick
-•	Someone who shows you love and affection
-•	Someone to love and make you feel wanted
-•	Someone who hugs you
-•	Someone to have a good time with
-•	Someone to get together with for relaxation
-•	Someone to do something enjoyable with
-•	Someone to do things with to help you get your mind off things</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">People sometimes look to others for companionship, assistance, or other types of support.
-Who do you turn to for social support?
- Think about who you turned to for social support in this last week.  Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Dates Used</t>
-  </si>
-  <si>
-    <t>July 13 - July 16</t>
-  </si>
-  <si>
-    <t>Aug 10 - Aug 13, Aug 24 - Aug 27</t>
-  </si>
-  <si>
-    <t>July 13 - July 16, Aug 10 - Aug 13, Aug 24 - Aug 27, Sept 8 - Sept 10, Dec 1 - Dec 3, Feb 3 - Feb 6, April 14 - April 16, April 28 - May 1, May 25 - May 28, July 21 - July 23, September 1 - September 3, October 27 - November 2</t>
-  </si>
-  <si>
-    <t>July 13 - July 16, Aug 10 - Aug 13, Aug 24 - Aug 27, Sept 8 - Sept 10, Dec 1 - Dec 3, Feb 3 - Feb 6, April 14 - April 16, April 28 - May 1, May 25 - May 28, July 21 - July 23, September 1 - September 3, January 11 - January 18</t>
+    <t xml:space="preserve">•	Yes
+•	No </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,20 +636,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="67.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="67.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="24" style="2" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="6"/>
+    <col min="6" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,115 +660,115 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="267.75">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="267.75">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="393.75">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="393.75">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="110.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="110.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="289" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mixzkvlkFuWouwq5SDsdbL0n6VJZQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5KPMIPbxGK8XCqq3OeXTubZAqDYk30+qm+Yht2F+lt4="/>
     </ext>
   </extLst>
 </workbook>
@@ -105,7 +105,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023</t>
+    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <r>

--- a/Data/SocialSupport.xlsx
+++ b/Data/SocialSupport.xlsx
@@ -105,7 +105,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
   <si>
     <r>
